--- a/artfynd/A 36956-2020.xlsx
+++ b/artfynd/A 36956-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111659699</v>
+        <v>111659700</v>
       </c>
       <c r="B2" t="n">
         <v>95532</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>800047.4485974194</v>
+        <v>799972.0195060072</v>
       </c>
       <c r="R2" t="n">
-        <v>7239832.989497012</v>
+        <v>7239766.02062137</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111659700</v>
+        <v>111659699</v>
       </c>
       <c r="B3" t="n">
         <v>95532</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>799972.0195060072</v>
+        <v>800047.4485974194</v>
       </c>
       <c r="R3" t="n">
-        <v>7239766.02062137</v>
+        <v>7239832.989497012</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>

--- a/artfynd/A 36956-2020.xlsx
+++ b/artfynd/A 36956-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111659700</v>
+        <v>111659699</v>
       </c>
       <c r="B2" t="n">
         <v>95532</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>799972.0195060072</v>
+        <v>800047.4485974194</v>
       </c>
       <c r="R2" t="n">
-        <v>7239766.02062137</v>
+        <v>7239832.989497012</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111659699</v>
+        <v>111659700</v>
       </c>
       <c r="B3" t="n">
         <v>95532</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>800047.4485974194</v>
+        <v>799972.0195060072</v>
       </c>
       <c r="R3" t="n">
-        <v>7239832.989497012</v>
+        <v>7239766.02062137</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>

--- a/artfynd/A 36956-2020.xlsx
+++ b/artfynd/A 36956-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111659700</v>
+        <v>111659699</v>
       </c>
       <c r="B2" t="n">
         <v>95532</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>799972.0195060072</v>
+        <v>800047</v>
       </c>
       <c r="R2" t="n">
-        <v>7239766.02062137</v>
+        <v>7239833</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -753,19 +753,9 @@
           <t>2023-08-10</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-10</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111659699</v>
+        <v>111659700</v>
       </c>
       <c r="B3" t="n">
         <v>95532</v>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>800047.4485974194</v>
+        <v>799972</v>
       </c>
       <c r="R3" t="n">
-        <v>7239832.989497012</v>
+        <v>7239766</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -865,19 +855,9 @@
           <t>2023-08-10</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-10</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
